--- a/2018.data.for.analyses.R/2018 behavioral analyses/Data/behavior.data.1.18.19.xlsx
+++ b/2018.data.for.analyses.R/2018 behavioral analyses/Data/behavior.data.1.18.19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\2018 summer\2018 Goby\2018 data for analyses, R\2018 behavioral analyses\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\2018 summer\2018 Goby\Goby_reproduction_by_risk\2018.data.for.analyses.R\2018 behavioral analyses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80D30BF5-3CA1-40C9-8F6C-1E92AD8D3EFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924872CB-1F50-4E23-917F-F6D772F21797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'New Behavior Sheet'!$D$1:$AA$76</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="112">
   <si>
     <t>exposed</t>
   </si>
@@ -63,9 +68,6 @@
     <t>Total.time.hidden</t>
   </si>
   <si>
-    <t>Distance.moved.(mm)</t>
-  </si>
-  <si>
     <t>chased.by.size/tag</t>
   </si>
   <si>
@@ -286,6 +288,87 @@
   </si>
   <si>
     <t>26 (g1) x2, 30 x1</t>
+  </si>
+  <si>
+    <t>28 x1, 30 x2</t>
+  </si>
+  <si>
+    <t>got a close look, but couldn't see tag</t>
+  </si>
+  <si>
+    <t>hardly moved, or took any bites</t>
+  </si>
+  <si>
+    <t>31 (g1)</t>
+  </si>
+  <si>
+    <t>IF I DON'T LIST A NUMBER FOR GRAVIDITY (FOR CHASER/CHASEE) THEN IT WAS A G0</t>
+  </si>
+  <si>
+    <t>male was in TOL, let, then focal individual went in TOL 1, then left</t>
+  </si>
+  <si>
+    <t>PACL (15) darted toward mesh and 3 BBGS reacted within cage! Neat!</t>
+  </si>
+  <si>
+    <t>was neutrally bouyant for about 15 seconds at the end of the observation</t>
+  </si>
+  <si>
+    <t>28 (g2) x2</t>
+  </si>
+  <si>
+    <t>chased into rocks by 28, was not seen on reef exposed after 1:44</t>
+  </si>
+  <si>
+    <t>41 x1, 32 (g1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chased by giga goby into TOL 2 </t>
+  </si>
+  <si>
+    <t>FSEPU (21)</t>
+  </si>
+  <si>
+    <t>PACL (11), FSEPU (11) x2</t>
+  </si>
+  <si>
+    <t>chased into rocks by FSEPU</t>
+  </si>
+  <si>
+    <t>FSEPU (10) at edge of cage</t>
+  </si>
+  <si>
+    <t>Distance.moved.(mm).think.I.actually.did.cm.during.obs</t>
+  </si>
+  <si>
+    <t>FHASE (8) X5, PACL (10) X2</t>
+  </si>
+  <si>
+    <t>FSEPU (20) PASSED BY</t>
+  </si>
+  <si>
+    <t>HR didn't record the tag info for chaser/chasee</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>FSEPU (30)</t>
+  </si>
+  <si>
+    <t>JPACL (15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSEPU (10) </t>
+  </si>
+  <si>
+    <t>PANE (20)</t>
+  </si>
+  <si>
+    <t>JPACL</t>
+  </si>
+  <si>
+    <t>NO TAG SEEN</t>
   </si>
 </sst>
 </file>
@@ -303,7 +386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -339,6 +428,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,11 +769,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z45" sqref="Z45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -716,16 +806,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -740,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -755,46 +845,46 @@
         <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>13</v>
-      </c>
       <c r="Y1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -805,25 +895,25 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -832,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
       <c r="N2">
         <v>110</v>
@@ -845,7 +935,7 @@
         <v>0.36666666666666664</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="0">300-N2</f>
+        <f t="shared" ref="P2:P32" si="0">300-N2</f>
         <v>190</v>
       </c>
       <c r="Q2" s="8">
@@ -865,22 +955,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2">
         <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -891,25 +984,25 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -918,7 +1011,7 @@
         <v>1.2</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
@@ -927,7 +1020,7 @@
         <v>286</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O33" si="1">N3/300</f>
+        <f t="shared" ref="O3:O32" si="1">N3/300</f>
         <v>0.95333333333333337</v>
       </c>
       <c r="P3">
@@ -935,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q33" si="2">P3/300</f>
+        <f t="shared" ref="Q3:Q32" si="2">P3/300</f>
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="R3">
@@ -951,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3">
         <v>80</v>
@@ -971,22 +1064,22 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>28</v>
@@ -995,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
         <v>0</v>
@@ -1031,22 +1124,22 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4">
         <v>625</v>
       </c>
       <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
         <v>31</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -1057,22 +1150,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>23</v>
@@ -1084,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
@@ -1117,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5">
         <v>45</v>
       </c>
       <c r="AA5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1140,22 +1233,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
         <v>39</v>
@@ -1167,7 +1260,7 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
         <v>0</v>
@@ -1200,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6">
         <v>100</v>
       </c>
       <c r="AB6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -1223,25 +1316,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1250,7 +1343,7 @@
         <v>1.2</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
@@ -1283,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7">
         <v>25</v>
       </c>
       <c r="Z7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1306,22 +1399,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>29</v>
@@ -1333,7 +1426,7 @@
         <v>3.4</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
@@ -1366,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="Y8" s="4">
         <v>324</v>
@@ -1386,25 +1479,25 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1413,7 +1506,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
@@ -1446,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="Y9" s="4">
         <v>81</v>
@@ -1466,22 +1559,22 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5">
         <v>30</v>
@@ -1493,7 +1586,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
@@ -1526,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="4">
         <v>162</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1549,13 +1642,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4">
         <v>4</v>
@@ -1576,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
@@ -1609,22 +1702,22 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="4">
         <v>324</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1635,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
@@ -1662,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
@@ -1695,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" s="4">
         <v>81</v>
@@ -1715,13 +1808,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
@@ -1742,10 +1835,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
@@ -1775,25 +1868,25 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="4">
         <v>81</v>
       </c>
       <c r="Z13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AB13" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -1804,13 +1897,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4">
         <v>7</v>
@@ -1831,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
@@ -1864,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" s="4">
         <v>900</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1887,13 +1980,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4">
         <v>7</v>
@@ -1914,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
@@ -1947,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="4">
         <v>400</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -1970,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
@@ -1997,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
@@ -2036,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="4">
         <v>9</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2053,13 +2146,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -2080,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
@@ -2113,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" s="4">
         <v>1</v>
@@ -2133,13 +2226,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
@@ -2160,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>0</v>
@@ -2193,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="4">
         <v>600</v>
@@ -2213,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4">
         <v>9</v>
@@ -2240,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>0</v>
@@ -2273,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="4">
         <v>64</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -2296,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4">
         <v>9</v>
@@ -2323,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>0</v>
@@ -2356,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="4">
         <v>240</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -2379,13 +2472,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4">
         <v>9</v>
@@ -2406,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>0</v>
@@ -2439,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21">
         <v>2</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="4">
         <v>225</v>
@@ -2459,13 +2552,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
@@ -2486,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
@@ -2519,22 +2612,22 @@
         <v>3</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W22" s="4">
         <v>0</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="4">
         <v>100</v>
       </c>
       <c r="Z22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -2545,13 +2638,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4">
         <v>4</v>
@@ -2572,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>0</v>
@@ -2605,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" s="4">
         <v>0</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y23" s="4">
         <v>25</v>
@@ -2625,13 +2718,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="4">
         <v>4</v>
@@ -2652,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>0</v>
@@ -2691,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" s="4">
         <v>49</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -2711,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="4">
         <v>11</v>
@@ -2738,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>0</v>
@@ -2771,19 +2864,19 @@
         <v>0</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W25" s="4">
         <v>0</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" s="4">
         <v>25</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -2794,13 +2887,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4">
         <v>11</v>
@@ -2821,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>0</v>
@@ -2854,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W26" s="4">
         <v>0</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y26" s="4">
         <v>100</v>
@@ -2874,13 +2967,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="4">
         <v>11</v>
@@ -2901,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N27" s="4">
         <v>75</v>
@@ -2934,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W27" s="4">
         <v>1</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y27" s="4">
         <v>250</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -2957,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4">
         <v>7</v>
@@ -2984,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>0</v>
@@ -3017,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" s="4">
         <v>0</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="4">
         <v>400</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -3040,13 +3133,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="4">
         <v>7</v>
@@ -3067,10 +3160,10 @@
         <v>5</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N29" s="4">
         <v>24</v>
@@ -3100,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W29" s="4">
         <v>0</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="4">
         <v>20</v>
@@ -3120,13 +3213,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="4">
         <v>7</v>
@@ -3147,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N30" s="4">
         <v>273</v>
@@ -3186,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="4">
         <v>800</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -3203,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="4">
         <v>7</v>
@@ -3230,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>0</v>
@@ -3263,22 +3356,22 @@
         <v>0</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W31" s="4">
         <v>0</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="4">
         <v>64</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
@@ -3289,13 +3382,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="4">
         <v>7</v>
@@ -3316,10 +3409,10 @@
         <v>4</v>
       </c>
       <c r="L32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
@@ -3349,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W32" s="4">
         <v>0</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="4">
         <v>25</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41795</v>
       </c>
@@ -3372,13 +3465,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="4">
         <v>7</v>
@@ -3399,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>0</v>
@@ -3432,22 +3525,22 @@
         <v>0</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W33" s="4">
         <v>0</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="4">
         <v>25</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41801</v>
       </c>
@@ -3455,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -3479,7 +3572,7 @@
         <v>5.4</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
         <v>0</v>
@@ -3512,19 +3605,19 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W34">
         <v>1</v>
       </c>
       <c r="X34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y34">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41801</v>
       </c>
@@ -3532,7 +3625,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -3556,10 +3649,10 @@
         <v>4</v>
       </c>
       <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
         <v>24</v>
-      </c>
-      <c r="M35" t="s">
-        <v>25</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3589,22 +3682,22 @@
         <v>3</v>
       </c>
       <c r="V35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y35">
         <v>225</v>
       </c>
       <c r="AA35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41801</v>
       </c>
@@ -3612,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -3636,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
         <v>0</v>
@@ -3669,22 +3762,22 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y36">
         <v>120</v>
       </c>
       <c r="AA36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41801</v>
       </c>
@@ -3692,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -3716,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37" t="s">
         <v>0</v>
@@ -3749,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y37">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41801</v>
       </c>
@@ -3769,7 +3862,7 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -3793,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
         <v>0</v>
@@ -3826,19 +3919,19 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y38">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41801</v>
       </c>
@@ -3846,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -3870,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
         <v>0</v>
@@ -3903,22 +3996,28 @@
         <v>2</v>
       </c>
       <c r="V39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y39">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>41801</v>
+      </c>
       <c r="B40">
         <v>12</v>
       </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
       <c r="D40">
         <v>12</v>
       </c>
@@ -3941,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
         <v>0</v>
@@ -3974,28 +4073,34 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40">
         <v>64</v>
       </c>
       <c r="Z40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41801</v>
+      </c>
       <c r="B41">
         <v>12</v>
       </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
       <c r="D41">
         <v>12</v>
       </c>
@@ -4018,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
         <v>0</v>
@@ -4051,25 +4156,31 @@
         <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W41">
         <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y41">
         <v>100</v>
       </c>
       <c r="AA41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41801</v>
+      </c>
       <c r="B42">
         <v>12</v>
       </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
       <c r="D42">
         <v>12</v>
       </c>
@@ -4092,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
         <v>0</v>
@@ -4125,25 +4236,31 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y42">
         <v>80</v>
       </c>
       <c r="Z42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41801</v>
+      </c>
       <c r="B43">
         <v>12</v>
       </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
       <c r="D43">
         <v>11</v>
       </c>
@@ -4166,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
         <v>24</v>
-      </c>
-      <c r="M43" t="s">
-        <v>25</v>
       </c>
       <c r="N43">
         <v>19</v>
@@ -4199,22 +4316,28 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y43">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>41801</v>
+      </c>
       <c r="B44">
         <v>12</v>
       </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
       <c r="D44">
         <v>11</v>
       </c>
@@ -4237,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
         <v>0</v>
@@ -4270,22 +4393,28 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y44">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41801</v>
+      </c>
       <c r="B45">
         <v>12</v>
       </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
       <c r="D45">
         <v>11</v>
       </c>
@@ -4308,10 +4437,10 @@
         <v>5</v>
       </c>
       <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
         <v>24</v>
-      </c>
-      <c r="M45" t="s">
-        <v>25</v>
       </c>
       <c r="N45">
         <v>160</v>
@@ -4341,61 +4470,2608 @@
         <v>3</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y45">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>300</v>
+      </c>
       <c r="O46" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>80</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>85</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="I47">
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>295</v>
+      </c>
       <c r="O47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="P47">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="R47">
+        <v>8</v>
+      </c>
+      <c r="S47">
+        <v>50</v>
+      </c>
+      <c r="T47">
+        <v>10</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>297</v>
+      </c>
       <c r="O48" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="P48">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>0.01</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48">
+        <v>16</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>269</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" ref="O49:O74" si="9">N49/300</f>
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="P49">
+        <f t="shared" ref="P49:P74" si="10">300-N49</f>
+        <v>31</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" ref="Q49:Q74" si="11">P49/300</f>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>45</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>88</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>22</v>
+      </c>
+      <c r="Y49">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>172</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="9"/>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="Q50" s="8">
+        <f t="shared" si="11"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="R50">
+        <v>12</v>
+      </c>
+      <c r="S50">
+        <v>70</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>29</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50">
+        <v>150</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>300</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>30</v>
+      </c>
+      <c r="T51">
+        <v>19</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>32</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>21</v>
+      </c>
+      <c r="Y51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I52">
+        <v>29</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>263</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="9"/>
+        <v>0.87666666666666671</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" si="11"/>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="R52">
+        <v>8</v>
+      </c>
+      <c r="S52">
+        <v>50</v>
+      </c>
+      <c r="T52">
+        <v>7</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="I53">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>300</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>9</v>
+      </c>
+      <c r="S53">
+        <v>20</v>
+      </c>
+      <c r="T53">
+        <v>13</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>300</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>11</v>
+      </c>
+      <c r="S54">
+        <v>20</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I55">
+        <v>31</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2.5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>213</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="9"/>
+        <v>0.71</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="Q55" s="8">
+        <f t="shared" si="11"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R55">
+        <v>12</v>
+      </c>
+      <c r="S55">
+        <v>80</v>
+      </c>
+      <c r="T55">
+        <v>9</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55">
+        <v>200</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="I56">
+        <v>27</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>87</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="9"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="10"/>
+        <v>213</v>
+      </c>
+      <c r="Q56" s="8">
+        <f t="shared" si="11"/>
+        <v>0.71</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>40</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56" t="s">
+        <v>93</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>269</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="9"/>
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" si="11"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="R57">
+        <v>8</v>
+      </c>
+      <c r="S57">
+        <v>50</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57" t="s">
+        <v>95</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57">
+        <v>195</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I58">
+        <v>25</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>300</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>20</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="I59">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>21</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="10"/>
+        <v>279</v>
+      </c>
+      <c r="Q59" s="8">
+        <f t="shared" si="11"/>
+        <v>0.93</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>40</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>33</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59">
+        <v>49</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="I60">
+        <v>24</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>252</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+      <c r="R60">
+        <v>10</v>
+      </c>
+      <c r="S60">
+        <v>60</v>
+      </c>
+      <c r="T60">
+        <v>11</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60">
+        <v>60</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I61">
+        <v>25</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>300</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>50</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>31</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61">
+        <v>100</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="I62">
+        <v>26</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>225</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="Q62" s="8">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R62">
+        <v>8</v>
+      </c>
+      <c r="S62">
+        <v>25</v>
+      </c>
+      <c r="T62">
+        <v>12</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="I63">
+        <v>28</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="9"/>
+        <v>0.61</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="Q63" s="8">
+        <f t="shared" si="11"/>
+        <v>0.39</v>
+      </c>
+      <c r="R63">
+        <v>8</v>
+      </c>
+      <c r="S63">
+        <v>60</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I64">
+        <v>26</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>223</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="9"/>
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" si="11"/>
+        <v>0.25666666666666665</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+      <c r="S64">
+        <v>25</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64">
+        <v>32</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="I65">
+        <v>26</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="10"/>
+        <v>297</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="11"/>
+        <v>0.99</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>10</v>
+      </c>
+      <c r="T65">
+        <v>11</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65">
+        <v>15</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I66">
+        <v>29</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>300</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>28</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>5.3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>163</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="9"/>
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="Q67" s="8">
+        <f t="shared" si="11"/>
+        <v>0.45666666666666667</v>
+      </c>
+      <c r="R67">
+        <v>15</v>
+      </c>
+      <c r="S67" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67">
+        <v>25</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB67" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>26</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1.4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68">
+        <v>136</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="9"/>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="Q68" s="8">
+        <f t="shared" si="11"/>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="R68" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68">
+        <v>10</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>60</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="Q69" s="8">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Q70" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>29</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Q71" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>15</v>
+      </c>
+      <c r="S71" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>26</v>
+      </c>
+      <c r="Y71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>27</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Q72" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>8</v>
+      </c>
+      <c r="S72" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>28</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Q73" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>20</v>
+      </c>
+      <c r="S73" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73">
+        <v>30</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>29</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1.2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="Q74" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>10</v>
+      </c>
+      <c r="S74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74">
+        <v>11</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" ref="O75:O92" si="12">N75/300</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ref="P75:P92" si="13">300-N75</f>
+        <v>300</v>
+      </c>
+      <c r="Q75" s="8">
+        <f t="shared" ref="Q75:Q92" si="14">P75/300</f>
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75">
+        <v>5</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB75" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O76" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q76" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O77" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q77" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O78" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q78" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O79" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q79" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O80" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q80" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O81" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q81" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O82" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q82" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O83" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q83" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O84" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q84" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O85" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q85" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O86" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q86" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O87" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q87" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O88" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q88" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O89" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q89" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O90" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q90" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O91" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q91" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O92" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Q92" s="8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
